--- a/data/metadata/Informe-05-050101-A-TP.xlsx
+++ b/data/metadata/Informe-05-050101-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>mes-y-ano</t>
   </si>
@@ -37,10 +37,10 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:aragon</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>medida</t>
@@ -52,13 +52,7 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>mapping-aragon.xlsx</t>
+    <t>URI-Comunidad</t>
   </si>
 </sst>
 </file>
@@ -166,7 +160,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -183,12 +177,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050101-A-TP.xlsx
+++ b/data/metadata/Informe-05-050101-A-TP.xlsx
@@ -11,36 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>mes-y-ano</t>
+    <t>Número Empresas</t>
   </si>
   <si>
-    <t>numero-empresas</t>
+    <t>Aragón'</t>
   </si>
   <si>
-    <t>direccion-provincial-codigo</t>
+    <t>Provincia</t>
   </si>
   <si>
-    <t>aragon</t>
+    <t>Mes y año</t>
   </si>
   <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>iaest-measure:mes-y-ano</t>
+    <t>Dirección provincial (código)</t>
   </si>
   <si>
     <t>iaest-measure:numero-empresas</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:provincia</t>
+  </si>
+  <si>
+    <t>iaest-measure:mes-y-ano</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>medida</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
 </sst>
 </file>
@@ -151,16 +154,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -168,16 +171,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050101-A-TP.xlsx
+++ b/data/metadata/Informe-05-050101-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Número Empresas</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>Dirección provincial (código)</t>
+  </si>
+  <si>
+    <t>numero-empresas</t>
+  </si>
+  <si>
+    <t>aragon</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
+  </si>
+  <si>
+    <t>direccion-provincial-codigo</t>
   </si>
   <si>
     <t>iaest-measure:numero-empresas</t>
@@ -157,30 +172,47 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050101-A-TP.xlsx
+++ b/data/metadata/Informe-05-050101-A-TP.xlsx
@@ -49,10 +49,7 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-measure:provincia</t>
-  </si>
-  <si>
-    <t>iaest-measure:mes-y-ano</t>
+    <t>iaest-dimension:mes-y-ano</t>
   </si>
   <si>
     <t>null</t>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>xsd:string</t>
@@ -172,21 +172,21 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -195,24 +195,24 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
